--- a/biology/Écologie/Lohachara/Lohachara.xlsx
+++ b/biology/Écologie/Lohachara/Lohachara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lohachara était une île du delta du Gange, proche de l'état indien du Bengale-Occidental, dans le parc national du Sundarbans, en Inde. Elle a été évacuée dans les années 1980. Cette immersion a induit le déplacement forcé de 6 000 familles vers l'île de Sagar, laquelle est déjà partiellement submergée. Son immersion définitive a été constatée par des chercheurs indiens en décembre 2006.
-Des études récentes tendent à montrer que l'îlot de Lohachara pourrait à nouveau émerger des eaux[1].
+Des études récentes tendent à montrer que l'îlot de Lohachara pourrait à nouveau émerger des eaux.
 Depuis vingt ans, quatre îles — Purbasha, Lohachara, Kabasgadi et Suparibhanga — ont été définitivement immergées. Même si d'autres causes locales peuvent être évoquées (érosion, …), cette disparition est étroitement liée à la hausse du niveau des mers due au réchauffement climatique global. 
 </t>
         </is>
